--- a/be-allergyintolerance.xlsx
+++ b/be-allergyintolerance.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="285">
   <si>
     <t>Path</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t>AllergyIntolerance</t>
@@ -147,8 +156,11 @@
     <t>Substances include, but are not limited to: a therapeutic substance administered correctly at an appropriate dosage for the individual; food; material derived from plants or animals; or venom from insect stings.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus='entered-in-error' or clinicalStatus.exists()}ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus!='entered-in-error' or clinicalStatus.empty()}</t>
+    <t>ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').exists() or clinicalStatus.exists()}
+ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
     <t>AllergyIntolerance.id</t>
@@ -160,7 +172,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -176,30 +188,26 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
+    <t>AllergyIntolerance.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
 </t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>AllergyIntolerance.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.implicitRules</t>
   </si>
   <si>
@@ -270,6 +278,9 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.contained</t>
   </si>
   <si>
@@ -293,6 +304,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.extension</t>
   </si>
   <si>
@@ -313,16 +327,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -340,7 +344,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -359,10 +363,19 @@
     <t>Business identifiers assigned to this AllergyIntolerance by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
   </si>
   <si>
     <t>Allows identification of the AllergyIntolerance as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>IAM-7</t>
   </si>
   <si>
     <t>AllergyIntolerance.clinicalStatus</t>
@@ -375,25 +388,27 @@
     <t>active | inactive | resolved</t>
   </si>
   <si>
-    <t>The clinical status of the allergy or intolerance.
-When available, a provider SHOULD include it. When given, a consumer SHALL record this in its consuming system.</t>
-  </si>
-  <si>
-    <t>Refer to [discussion](extensibility.html#Special-Case) if clincalStatus is missing data.
+    <t>The clinical status of the allergy or intolerance.</t>
+  </si>
+  <si>
+    <t>Refer to [discussion](http://hl7.org/fhir/R4/extensibility.html#Special-Case) if clincalStatus is missing data.
 The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>The clinical status of the allergy or intolerance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical|4.0.0</t>
-  </si>
-  <si>
-    <t>ele-1
-ait-1ait-2</t>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical|4.0.1</t>
+  </si>
+  <si>
+    <t>ait-1
+ait-2</t>
+  </si>
+  <si>
+    <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="clinicalStatus", moodCode=EVN].value</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
   </si>
   <si>
     <t>AllergyIntolerance.verificationStatus</t>
@@ -402,8 +417,7 @@
     <t>unconfirmed | confirmed | refuted | entered-in-error</t>
   </si>
   <si>
-    <t>Assertion about certainty associated with the propensity, or potential risk, of a reaction to the identified substance (including pharmaceutical product).
-When available, a provider SHOULD include it. When given, a consumer SHALL record this in its consuming system.</t>
+    <t>Assertion about certainty associated with the propensity, or potential risk, of a reaction to the identified substance (including pharmaceutical product).</t>
   </si>
   <si>
     <t>The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
@@ -412,7 +426,10 @@
     <t>Assertion about certainty associated with a propensity, or potential risk, of a reaction to the identified substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification|4.0.1</t>
+  </si>
+  <si>
+    <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
   </si>
   <si>
     <t>AllergyIntolerance.type</t>
@@ -425,8 +442,7 @@
     <t>allergy | intolerance - Underlying mechanism (if known)</t>
   </si>
   <si>
-    <t>Identification of the underlying physiological mechanism for the reaction risk.
-When available, a provider SHOULD include it. When given, a consumer SHALL record this in its consuming system.</t>
+    <t>Identification of the underlying physiological mechanism for the reaction risk.</t>
   </si>
   <si>
     <t>Allergic (typically immune-mediated) reactions have been traditionally regarded as an indicator for potential escalation to significant future risk. Contemporary knowledge suggests that some reactions previously thought to be immune-mediated are, in fact, non-immune, but in some cases can still pose a life threatening risk. It is acknowledged that many clinicians might not be in a position to distinguish the mechanism of a particular reaction. Often the term "allergy" is used rather generically and may overlap with the use of "intolerance" - in practice the boundaries between these two concepts might not be well-defined or understood. This data element is included nevertheless, because many legacy systems have captured this attribute. Immunologic testing may provide supporting evidence for the basis of the reaction and the causative substance, but no tests are 100% sensitive or specific for sensitivity to a particular substance. If, as is commonly the case, it is unclear whether the reaction is due to an allergy or an intolerance, then the type element should be omitted from the resource.</t>
@@ -435,7 +451,16 @@
     <t>Identification of the underlying physiological mechanism for a Reaction Risk.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type|4.0.1</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>IAM-9</t>
   </si>
   <si>
     <t>AllergyIntolerance.category</t>
@@ -448,17 +473,22 @@
     <t>food | medication | environment | biologic</t>
   </si>
   <si>
-    <t>Category of the identified substance.
-When available, a provider SHOULD include it in the istance. When given, a consumer SHALL record this in its consuming system.</t>
-  </si>
-  <si>
-    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
+    <t>Category of the identified substance.</t>
+  </si>
+  <si>
+    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](http://hl7.org/fhir/R4/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
   </si>
   <si>
     <t>Category of an identified substance associated with allergies or intolerances.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category|4.0.1</t>
+  </si>
+  <si>
+    <t>value &lt; IntoleranceValue (Agent)</t>
+  </si>
+  <si>
+    <t>AL1-2</t>
   </si>
   <si>
     <t>AllergyIntolerance.criticality</t>
@@ -480,7 +510,16 @@
     <t>Estimate of the potential clinical harm, or seriousness, of a reaction to an identified substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality|4.0.1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=SEV, value &lt;= SeverityObservation (Severity Level)]</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>AL1-4</t>
   </si>
   <si>
     <t>AllergyIntolerance.code</t>
@@ -493,8 +532,7 @@
     <t>Code that identifies the allergy or intolerance</t>
   </si>
   <si>
-    <t>Code for an allergy or intolerance statement (either a positive or a negated/excluded statement).  This may be a code for a substance or pharmaceutical product that is considered to be responsible for the adverse reaction risk (e.g., "Latex"), an allergy or intolerance condition (e.g., "Latex allergy"), or a negated/excluded code for a specific substance or class (e.g., "No latex allergy") or a general or categorical negated statement (e.g.,  "No known allergy", "No known drug allergies").  Note: the substance for a specific reaction may be different from the substance identified as the cause of the risk, but it must be consistent with it. For instance, it may be a more specific substance (e.g. a brand medication) or a composite product that includes the identified substance. It must be clinically safe to only process the 'code' and ignore the 'reaction.substance'.  If a receiving system is unable to confirm that AllergyIntolerance.reaction.substance falls within the semantic scope of AllergyIntolerance.code, then the receiving system should ignore AllergyIntolerance.reaction.substance.
-A provider SHALL include it in the istance and a consumer SHALL record this in its consuming system.  If needed codes can be used outside the given valueset, SNOMED-CT is preferred.</t>
+    <t>Code for an allergy or intolerance statement (either a positive or a negated/excluded statement).  This may be a code for a substance or pharmaceutical product that is considered to be responsible for the adverse reaction risk (e.g., "Latex"), an allergy or intolerance condition (e.g., "Latex allergy"), or a negated/excluded code for a specific substance or class (e.g., "No latex allergy") or a general or categorical negated statement (e.g.,  "No known allergy", "No known drug allergies").  Note: the substance for a specific reaction may be different from the substance identified as the cause of the risk, but it must be consistent with it. For instance, it may be a more specific substance (e.g. a brand medication) or a composite product that includes the identified substance. It must be clinically safe to only process the 'code' and ignore the 'reaction.substance'.  If a receiving system is unable to confirm that AllergyIntolerance.reaction.substance falls within the semantic scope of AllergyIntolerance.code, then the receiving system should ignore AllergyIntolerance.reaction.substance.</t>
   </si>
   <si>
     <t>It is strongly recommended that this element be populated using a terminology, where possible. For example, some terminologies used include RxNorm, SNOMED CT, DM+D, NDFRT, ICD-9, IDC-10, UNII, and ATC. Plain text should only be used if there is no appropriate terminology available. Additional details can be specified in the text.@@ -513,6 +551,25 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-causativeagent</t>
   </si>
   <si>
+    <t>substance/product:++.participation[typeCode=CAGNT].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]++negated/excluded substance/product:++.participation[typeCode=CAGNT, negationInd=true].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]++positive or negated/excluded condition/situation:++Observation.code=ASSERTION; Observation.value</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>AL1-3 / IAM-3</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.patient</t>
   </si>
   <si>
@@ -527,15 +584,16 @@
     <t>Who the sensitivity is for</t>
   </si>
   <si>
-    <t>The patient who has the allergy or intolerance.
-A provider SHALL include it in the istance and a consumer SHALL record this in its consuming system.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %resource.contained.id.trace('ids'))}</t>
+    <t>The patient who has the allergy or intolerance.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>(PID-3)</t>
   </si>
   <si>
     <t>AllergyIntolerance.encounter</t>
@@ -551,6 +609,12 @@
     <t>The encounter when the allergy or intolerance was asserted.</t>
   </si>
   <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.onset[x]</t>
   </si>
   <si>
@@ -564,6 +628,12 @@
     <t>Estimated or actual date,  date-time, or age when allergy or intolerance was identified.</t>
   </si>
   <si>
+    <t>effectiveTime.low</t>
+  </si>
+  <si>
+    <t>FiveWs.init</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.recordedDate</t>
   </si>
   <si>
@@ -574,8 +644,16 @@
     <t>Date first version of the resource instance was recorded</t>
   </si>
   <si>
-    <t>The recordedDate represents when this particular AllergyIntolerance record was created in the system, which is often a system-generated date.
-A provider SHALL include it in the istance and a consumer SHALL record this in its consuming system.</t>
+    <t>The recordedDate represents when this particular AllergyIntolerance record was created in the system, which is often a system-generated date.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>IAM-13</t>
   </si>
   <si>
     <t>AllergyIntolerance.recorder</t>
@@ -585,20 +663,20 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
     <t>Who recorded the sensitivity</t>
   </si>
   <si>
-    <t>Individual who recorded the record and takes responsibility for its content.
-A provider SHALL include it in the istance and a consumer SHALL record this in its consuming system.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-Special remarks for KMEHR users:
-This is the &lt;author&gt; concept in a KMEHR message as the FHIR recorder is the party taking responsibility.</t>
+    <t>Individual who recorded the record and takes responsibility for its content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
   </si>
   <si>
     <t>AllergyIntolerance.asserter</t>
@@ -608,20 +686,22 @@
 Informant</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
-</t>
-  </si>
-  <si>
     <t>Source of the information about the allergy</t>
   </si>
   <si>
-    <t>The source of the information about the allergy that is recorded.
-When available, a provider SHOULD include it in the istance. When given, a consumer SHALL record this in its consuming system.</t>
-  </si>
-  <si>
-    <t>The recorder takes responsibility for the content, but can reference the source from where they got it.
-Special remarks for KMEHR users:
-As the FHIR asserter is not the party taking responsibility, this is not equal to the &lt;author&gt; concept in KMEHR.</t>
+    <t>The source of the information about the allergy that is recorded.</t>
+  </si>
+  <si>
+    <t>The recorder takes responsibility for the content, but can reference the source from where they got it.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>IAM-14 (if patient) / IAM-18 (if practitioner)</t>
   </si>
   <si>
     <t>AllergyIntolerance.lastOccurrence</t>
@@ -634,6 +714,9 @@
   </si>
   <si>
     <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the Comment element should be used.</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)].effectiveTime</t>
   </si>
   <si>
     <t>AllergyIntolerance.note</t>
@@ -649,8 +732,10 @@
     <t>Additional narrative about the propensity for the Adverse Reaction, not captured in other fields.</t>
   </si>
   <si>
-    <t>For example: including reason for flagging a seriousness of 'High Risk'; and instructions related to future exposure or administration of the substance, such as administration within an Intensive Care Unit or under corticosteroid cover. The notes should be related to an allergy or intolerance as a condition in general and not related to any particular episode of it. For episode notes and descriptions, use AllergyIntolerance.event.description and  AllergyIntolerance.event.notes.
-When available, a provider SHOULD include it. When given, a consumer SHALL record this in its consuming system.</t>
+    <t>For example: including reason for flagging a seriousness of 'High Risk'; and instructions related to future exposure or administration of the substance, such as administration within an Intensive Care Unit or under corticosteroid cover. The notes should be related to an allergy or intolerance as a condition in general and not related to any particular episode of it. For episode notes and descriptions, use AllergyIntolerance.event.description and  AllergyIntolerance.event.notes.</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction</t>
@@ -663,17 +748,15 @@
     <t>Adverse Reaction Events linked to exposure to substance</t>
   </si>
   <si>
-    <t>Details about each adverse reaction event linked to exposure to the identified substance.
-When available, a provider SHOULD include it in the istance. When given, a consumer SHALL record this in its consuming system.</t>
+    <t>Details about each adverse reaction event linked to exposure to the identified substance.</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)]</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -681,6 +764,9 @@
   </si>
   <si>
     <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.extension</t>
@@ -715,8 +801,7 @@
     <t>Specific substance or pharmaceutical product considered to be responsible for event</t>
   </si>
   <si>
-    <t xml:space="preserve">Identification of the specific substance (or pharmaceutical product) considered to be responsible for the Adverse Reaction event. Note: the substance for a specific reaction may be different from the substance identified as the cause of the risk, but it must be consistent with it. For instance, it may be a more specific substance (e.g. a brand medication) or a composite product that includes the identified substance. It must be clinically safe to only process the 'code' and ignore the 'reaction.substance'.  If a receiving system is unable to confirm that AllergyIntolerance.reaction.substance falls within the semantic scope of AllergyIntolerance.code, then the receiving system should ignore AllergyIntolerance.reaction.substance.
-</t>
+    <t>Identification of the specific substance (or pharmaceutical product) considered to be responsible for the Adverse Reaction event. Note: the substance for a specific reaction may be different from the substance identified as the cause of the risk, but it must be consistent with it. For instance, it may be a more specific substance (e.g. a brand medication) or a composite product that includes the identified substance. It must be clinically safe to only process the 'code' and ignore the 'reaction.substance'.  If a receiving system is unable to confirm that AllergyIntolerance.reaction.substance falls within the semantic scope of AllergyIntolerance.code, then the receiving system should ignore AllergyIntolerance.reaction.substance.</t>
   </si>
   <si>
     <t>Coding of the specific substance (or pharmaceutical product) with a terminology capable of triggering decision support should be used wherever possible.  The 'code' element allows for the use of a specific substance or pharmaceutical product, or a group or class of substances. In the case of an allergy or intolerance to a class of substances, (for example, "penicillins"), the 'reaction.substance' element could be used to code the specific substance that was identified as having caused the reaction (for example, "amoxycillin"). Duplication of the value in the 'code' and 'reaction.substance' elements is acceptable when a specific substance has been recorded in 'code'.</t>
@@ -729,6 +814,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/substance-code</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].participation[typeCode=CSM].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation</t>
@@ -741,17 +829,16 @@
     <t>Clinical symptoms/signs associated with the Event</t>
   </si>
   <si>
-    <t>Clinical symptoms and/or signs that are observed or associated with the adverse reaction event.
-When available, a provider SHOULD include it. When given, a consumer SHALL record this in its consuming system. If needed codes can be used outside the given valueset, SNOMED-CT is preferred.</t>
+    <t>Clinical symptoms and/or signs that are observed or associated with the adverse reaction event.</t>
   </si>
   <si>
     <t>Manifestation can be expressed as a single word, phrase or brief description. For example: nausea, rash or no reaction. It is preferable that manifestation should be coded with a terminology, where possible. The values entered here may be used to display on an application screen as part of a list of adverse reactions, as recommended in the UK NHS CUI guidelines.  Terminologies commonly used include, but are not limited to, SNOMED CT or ICD10.</t>
   </si>
   <si>
-    <t>Clinical symptoms and/or signs that are observed or associated with an Adverse Reaction Event.</t>
-  </si>
-  <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-riskmanifestation</t>
+  </si>
+  <si>
+    <t>AL1-5</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.description</t>
@@ -770,14 +857,19 @@
     <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the comment field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.reaction.onset</t>
   </si>
   <si>
     <t>Date(/time) when manifestations showed</t>
   </si>
   <si>
-    <t xml:space="preserve">Record of the date and/or time of the onset of the Reaction.
-</t>
+    <t>Record of the date and/or time of the onset of the Reaction.</t>
+  </si>
+  <si>
+    <t>AL1-6</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.severity</t>
@@ -795,7 +887,7 @@
     <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reaction-event-severity|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/reaction-event-severity|4.0.1</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.exposureRoute</t>
@@ -804,7 +896,7 @@
     <t>How the subject was exposed to the substance</t>
   </si>
   <si>
-    <t>Identification of the route by which the subject was exposed to the substance.  If needed codes can be used outside the given valueset, SNOMED-CT is preferred.</t>
+    <t>Identification of the route by which the subject was exposed to the substance.</t>
   </si>
   <si>
     <t>Coding of the route of exposure with a terminology should be used wherever possible.</t>
@@ -816,14 +908,16 @@
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
   </si>
   <si>
+    <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].routeCode</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.reaction.note</t>
   </si>
   <si>
     <t>Text about event not captured in other fields</t>
   </si>
   <si>
-    <t>Additional text about the adverse reaction event not captured in other fields.
-A note on this level SHOULD be avoided when not absolutely necessary. Preferably use the .note one level higher.</t>
+    <t>Additional text about the adverse reaction event not captured in other fields.</t>
   </si>
   <si>
     <t>Use this field to record information indirectly related to a particular event and not captured in the description. For example: Clinical records are no longer available, recorded based on information provided to the patient by her mother and her mother is deceased.</t>
@@ -975,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1011,7 +1105,7 @@
     <col min="25" max="25" width="68.9609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="39.515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1019,6 +1113,9 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="40.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1127,3468 +1224,3784 @@
       <c r="AI1" t="s" s="1">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="X12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AF12" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>53</v>
+      <c r="AL13" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>160</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>160</v>
+        <v>61</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>179</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>160</v>
+        <v>61</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>160</v>
+        <v>61</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>160</v>
+        <v>61</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>213</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>257</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>267</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI36">
+  <autoFilter ref="A1:AL36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/be-allergyintolerance.xlsx
+++ b/be-allergyintolerance.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="249">
   <si>
     <t>Path</t>
   </si>
@@ -120,15 +120,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t>AllergyIntolerance</t>
@@ -156,11 +147,8 @@
     <t>Substances include, but are not limited to: a therapeutic substance administered correctly at an appropriate dosage for the individual; food; material derived from plants or animals; or venom from insect stings.</t>
   </si>
   <si>
-    <t>ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').exists() or clinicalStatus.exists()}
-ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus='entered-in-error' or clinicalStatus.exists()}ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus!='entered-in-error' or clinicalStatus.empty()}</t>
   </si>
   <si>
     <t>AllergyIntolerance.id</t>
@@ -172,7 +160,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -186,6 +174,14 @@
   </si>
   <si>
     <t>Resource.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>AllergyIntolerance.meta</t>
@@ -204,10 +200,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.implicitRules</t>
   </si>
   <si>
@@ -278,9 +270,6 @@
     <t>DomainResource.text</t>
   </si>
   <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.contained</t>
   </si>
   <si>
@@ -304,9 +293,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.extension</t>
   </si>
   <si>
@@ -327,6 +313,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -344,7 +340,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -363,19 +359,10 @@
     <t>Business identifiers assigned to this AllergyIntolerance by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+    <t>This is a business identifier, not a resource identifier (see [discussion](resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
   </si>
   <si>
     <t>Allows identification of the AllergyIntolerance as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>IAM-7</t>
   </si>
   <si>
     <t>AllergyIntolerance.clinicalStatus</t>
@@ -388,27 +375,25 @@
     <t>active | inactive | resolved</t>
   </si>
   <si>
+    <t>The clinical status of the allergy or intolerance.
+When available, a provider SHOULD include it. When given, a consumer SHALL record this in its consuming system.</t>
+  </si>
+  <si>
+    <t>Refer to [discussion](extensibility.html#Special-Case) if clincalStatus is missing data.
+The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The clinical status of the allergy or intolerance.</t>
   </si>
   <si>
-    <t>Refer to [discussion](http://hl7.org/fhir/R4/extensibility.html#Special-Case) if clincalStatus is missing data.
-The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical|4.0.1</t>
-  </si>
-  <si>
-    <t>ait-1
-ait-2</t>
-  </si>
-  <si>
-    <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="clinicalStatus", moodCode=EVN].value</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical|4.0.0</t>
+  </si>
+  <si>
+    <t>ele-1
+ait-1ait-2</t>
   </si>
   <si>
     <t>AllergyIntolerance.verificationStatus</t>
@@ -417,7 +402,8 @@
     <t>unconfirmed | confirmed | refuted | entered-in-error</t>
   </si>
   <si>
-    <t>Assertion about certainty associated with the propensity, or potential risk, of a reaction to the identified substance (including pharmaceutical product).</t>
+    <t>Assertion about certainty associated with the propensity, or potential risk, of a reaction to the identified substance (including pharmaceutical product).
+When available, a provider SHOULD include it. When given, a consumer SHALL record this in its consuming system.</t>
   </si>
   <si>
     <t>The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
@@ -426,10 +412,7 @@
     <t>Assertion about certainty associated with a propensity, or potential risk, of a reaction to the identified substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification|4.0.1</t>
-  </si>
-  <si>
-    <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification|4.0.0</t>
   </si>
   <si>
     <t>AllergyIntolerance.type</t>
@@ -442,7 +425,8 @@
     <t>allergy | intolerance - Underlying mechanism (if known)</t>
   </si>
   <si>
-    <t>Identification of the underlying physiological mechanism for the reaction risk.</t>
+    <t>Identification of the underlying physiological mechanism for the reaction risk.
+When available, a provider SHOULD include it. When given, a consumer SHALL record this in its consuming system.</t>
   </si>
   <si>
     <t>Allergic (typically immune-mediated) reactions have been traditionally regarded as an indicator for potential escalation to significant future risk. Contemporary knowledge suggests that some reactions previously thought to be immune-mediated are, in fact, non-immune, but in some cases can still pose a life threatening risk. It is acknowledged that many clinicians might not be in a position to distinguish the mechanism of a particular reaction. Often the term "allergy" is used rather generically and may overlap with the use of "intolerance" - in practice the boundaries between these two concepts might not be well-defined or understood. This data element is included nevertheless, because many legacy systems have captured this attribute. Immunologic testing may provide supporting evidence for the basis of the reaction and the causative substance, but no tests are 100% sensitive or specific for sensitivity to a particular substance. If, as is commonly the case, it is unclear whether the reaction is due to an allergy or an intolerance, then the type element should be omitted from the resource.</t>
@@ -451,16 +435,7 @@
     <t>Identification of the underlying physiological mechanism for a Reaction Risk.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type|4.0.1</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>IAM-9</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-type|4.0.0</t>
   </si>
   <si>
     <t>AllergyIntolerance.category</t>
@@ -473,22 +448,17 @@
     <t>food | medication | environment | biologic</t>
   </si>
   <si>
-    <t>Category of the identified substance.</t>
-  </si>
-  <si>
-    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](http://hl7.org/fhir/R4/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
+    <t>Category of the identified substance.
+When available, a provider SHOULD include it in the istance. When given, a consumer SHALL record this in its consuming system.</t>
+  </si>
+  <si>
+    <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
   </si>
   <si>
     <t>Category of an identified substance associated with allergies or intolerances.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category|4.0.1</t>
-  </si>
-  <si>
-    <t>value &lt; IntoleranceValue (Agent)</t>
-  </si>
-  <si>
-    <t>AL1-2</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-category|4.0.0</t>
   </si>
   <si>
     <t>AllergyIntolerance.criticality</t>
@@ -510,16 +480,7 @@
     <t>Estimate of the potential clinical harm, or seriousness, of a reaction to an identified substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality|4.0.1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=SEV, value &lt;= SeverityObservation (Severity Level)]</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>AL1-4</t>
+    <t>http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality|4.0.0</t>
   </si>
   <si>
     <t>AllergyIntolerance.code</t>
@@ -532,7 +493,8 @@
     <t>Code that identifies the allergy or intolerance</t>
   </si>
   <si>
-    <t>Code for an allergy or intolerance statement (either a positive or a negated/excluded statement).  This may be a code for a substance or pharmaceutical product that is considered to be responsible for the adverse reaction risk (e.g., "Latex"), an allergy or intolerance condition (e.g., "Latex allergy"), or a negated/excluded code for a specific substance or class (e.g., "No latex allergy") or a general or categorical negated statement (e.g.,  "No known allergy", "No known drug allergies").  Note: the substance for a specific reaction may be different from the substance identified as the cause of the risk, but it must be consistent with it. For instance, it may be a more specific substance (e.g. a brand medication) or a composite product that includes the identified substance. It must be clinically safe to only process the 'code' and ignore the 'reaction.substance'.  If a receiving system is unable to confirm that AllergyIntolerance.reaction.substance falls within the semantic scope of AllergyIntolerance.code, then the receiving system should ignore AllergyIntolerance.reaction.substance.</t>
+    <t>Code for an allergy or intolerance statement (either a positive or a negated/excluded statement).  This may be a code for a substance or pharmaceutical product that is considered to be responsible for the adverse reaction risk (e.g., "Latex"), an allergy or intolerance condition (e.g., "Latex allergy"), or a negated/excluded code for a specific substance or class (e.g., "No latex allergy") or a general or categorical negated statement (e.g.,  "No known allergy", "No known drug allergies").  Note: the substance for a specific reaction may be different from the substance identified as the cause of the risk, but it must be consistent with it. For instance, it may be a more specific substance (e.g. a brand medication) or a composite product that includes the identified substance. It must be clinically safe to only process the 'code' and ignore the 'reaction.substance'.  If a receiving system is unable to confirm that AllergyIntolerance.reaction.substance falls within the semantic scope of AllergyIntolerance.code, then the receiving system should ignore AllergyIntolerance.reaction.substance.
+A provider SHALL include it in the istance and a consumer SHALL record this in its consuming system.  If needed codes can be used outside the given valueset, SNOMED-CT is preferred.</t>
   </si>
   <si>
     <t>It is strongly recommended that this element be populated using a terminology, where possible. For example, some terminologies used include RxNorm, SNOMED CT, DM+D, NDFRT, ICD-9, IDC-10, UNII, and ATC. Plain text should only be used if there is no appropriate terminology available. Additional details can be specified in the text.@@ -551,25 +513,6 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-causativeagent</t>
   </si>
   <si>
-    <t>substance/product:--.participation[typeCode=CAGNT].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]--negated/excluded substance/product:--.participation[typeCode=CAGNT, negationInd=true].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]--positive or negated/excluded condition/situation:--Observation.code=ASSERTION; Observation.value</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>AL1-3 / IAM-3</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.patient</t>
   </si>
   <si>
@@ -584,16 +527,15 @@
     <t>Who the sensitivity is for</t>
   </si>
   <si>
-    <t>The patient who has the allergy or intolerance.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>(PID-3)</t>
+    <t>The patient who has the allergy or intolerance.
+A provider SHALL include it in the istance and a consumer SHALL record this in its consuming system.</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %resource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>AllergyIntolerance.encounter</t>
@@ -609,12 +551,6 @@
     <t>The encounter when the allergy or intolerance was asserted.</t>
   </si>
   <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.onset[x]</t>
   </si>
   <si>
@@ -628,12 +564,6 @@
     <t>Estimated or actual date,  date-time, or age when allergy or intolerance was identified.</t>
   </si>
   <si>
-    <t>effectiveTime.low</t>
-  </si>
-  <si>
-    <t>FiveWs.init</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.recordedDate</t>
   </si>
   <si>
@@ -644,16 +574,8 @@
     <t>Date first version of the resource instance was recorded</t>
   </si>
   <si>
-    <t>The recordedDate represents when this particular AllergyIntolerance record was created in the system, which is often a system-generated date.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>IAM-13</t>
+    <t>The recordedDate represents when this particular AllergyIntolerance record was created in the system, which is often a system-generated date.
+A provider SHALL include it in the istance and a consumer SHALL record this in its consuming system.</t>
   </si>
   <si>
     <t>AllergyIntolerance.recorder</t>
@@ -663,20 +585,20 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
     <t>Who recorded the sensitivity</t>
   </si>
   <si>
-    <t>Individual who recorded the record and takes responsibility for its content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
+    <t>Individual who recorded the record and takes responsibility for its content.
+A provider SHALL include it in the istance and a consumer SHALL record this in its consuming system.</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+Special remarks for KMEHR users:
+This is the 'author' concept in a KMEHR message as the FHIR recorder is the party taking responsibility.</t>
   </si>
   <si>
     <t>AllergyIntolerance.asserter</t>
@@ -686,22 +608,20 @@
 Informant</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
+</t>
+  </si>
+  <si>
     <t>Source of the information about the allergy</t>
   </si>
   <si>
-    <t>The source of the information about the allergy that is recorded.</t>
-  </si>
-  <si>
-    <t>The recorder takes responsibility for the content, but can reference the source from where they got it.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>IAM-14 (if patient) / IAM-18 (if practitioner)</t>
+    <t>The source of the information about the allergy that is recorded.
+When available, a provider SHOULD include it in the istance. When given, a consumer SHALL record this in its consuming system.</t>
+  </si>
+  <si>
+    <t>The recorder takes responsibility for the content, but can reference the source from where they got it.
+Special remarks for KMEHR users:
+As the FHIR asserter is not the party taking responsibility, this is not equal to the 'author' concept in KMEHR.</t>
   </si>
   <si>
     <t>AllergyIntolerance.lastOccurrence</t>
@@ -714,9 +634,6 @@
   </si>
   <si>
     <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the Comment element should be used.</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)].effectiveTime</t>
   </si>
   <si>
     <t>AllergyIntolerance.note</t>
@@ -732,10 +649,8 @@
     <t>Additional narrative about the propensity for the Adverse Reaction, not captured in other fields.</t>
   </si>
   <si>
-    <t>For example: including reason for flagging a seriousness of 'High Risk'; and instructions related to future exposure or administration of the substance, such as administration within an Intensive Care Unit or under corticosteroid cover. The notes should be related to an allergy or intolerance as a condition in general and not related to any particular episode of it. For episode notes and descriptions, use AllergyIntolerance.event.description and  AllergyIntolerance.event.notes.</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
+    <t>For example: including reason for flagging a seriousness of 'High Risk'; and instructions related to future exposure or administration of the substance, such as administration within an Intensive Care Unit or under corticosteroid cover. The notes should be related to an allergy or intolerance as a condition in general and not related to any particular episode of it. For episode notes and descriptions, use AllergyIntolerance.event.description and  AllergyIntolerance.event.notes.
+When available, a provider SHOULD include it. When given, a consumer SHALL record this in its consuming system.</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction</t>
@@ -748,15 +663,17 @@
     <t>Adverse Reaction Events linked to exposure to substance</t>
   </si>
   <si>
-    <t>Details about each adverse reaction event linked to exposure to the identified substance.</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)]</t>
+    <t>Details about each adverse reaction event linked to exposure to the identified substance.
+When available, a provider SHOULD include it in the istance. When given, a consumer SHALL record this in its consuming system.</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -764,9 +681,6 @@
   </si>
   <si>
     <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.extension</t>
@@ -816,9 +730,6 @@
     <t>http://hl7.org/fhir/ValueSet/substance-code</t>
   </si>
   <si>
-    <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].participation[typeCode=CSM].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.reaction.manifestation</t>
   </si>
   <si>
@@ -829,16 +740,17 @@
     <t>Clinical symptoms/signs associated with the Event</t>
   </si>
   <si>
-    <t>Clinical symptoms and/or signs that are observed or associated with the adverse reaction event.</t>
+    <t>Clinical symptoms and/or signs that are observed or associated with the adverse reaction event.
+When available, a provider SHOULD include it. When given, a consumer SHALL record this in its consuming system. If needed codes can be used outside the given valueset, SNOMED-CT is preferred.</t>
   </si>
   <si>
     <t>Manifestation can be expressed as a single word, phrase or brief description. For example: nausea, rash or no reaction. It is preferable that manifestation should be coded with a terminology, where possible. The values entered here may be used to display on an application screen as part of a list of adverse reactions, as recommended in the UK NHS CUI guidelines.  Terminologies commonly used include, but are not limited to, SNOMED CT or ICD10.</t>
   </si>
   <si>
+    <t>Clinical symptoms and/or signs that are observed or associated with an Adverse Reaction Event.</t>
+  </si>
+  <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-riskmanifestation</t>
-  </si>
-  <si>
-    <t>AL1-5</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.description</t>
@@ -857,9 +769,6 @@
     <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the comment field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.reaction.onset</t>
   </si>
   <si>
@@ -869,9 +778,6 @@
     <t>Record of the date and/or time of the onset of the Reaction.</t>
   </si>
   <si>
-    <t>AL1-6</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.reaction.severity</t>
   </si>
   <si>
@@ -887,7 +793,7 @@
     <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reaction-event-severity|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/reaction-event-severity|4.0.0</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.exposureRoute</t>
@@ -896,7 +802,7 @@
     <t>How the subject was exposed to the substance</t>
   </si>
   <si>
-    <t>Identification of the route by which the subject was exposed to the substance.</t>
+    <t>Identification of the route by which the subject was exposed to the substance.  If needed codes can be used outside the given valueset, SNOMED-CT is preferred.</t>
   </si>
   <si>
     <t>Coding of the route of exposure with a terminology should be used wherever possible.</t>
@@ -908,16 +814,14 @@
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
   </si>
   <si>
-    <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].routeCode</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.reaction.note</t>
   </si>
   <si>
     <t>Text about event not captured in other fields</t>
   </si>
   <si>
-    <t>Additional text about the adverse reaction event not captured in other fields.</t>
+    <t>Additional text about the adverse reaction event not captured in other fields.
+A note on this level SHOULD be avoided when not absolutely necessary. Preferably use the .note one level higher.</t>
   </si>
   <si>
     <t>Use this field to record information indirectly related to a particular event and not captured in the description. For example: Clinical records are no longer available, recorded based on information provided to the patient by her mother and her mother is deceased.</t>
@@ -1069,7 +973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1105,7 +1009,7 @@
     <col min="25" max="25" width="68.9609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="39.515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1113,9 +1017,6 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1224,3784 +1125,3468 @@
       <c r="AI1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="X6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="O10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="O11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="AI12" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>141</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>150</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>160</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>171</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>198</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>213</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL36">
+  <autoFilter ref="A1:AI36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/be-allergyintolerance.xlsx
+++ b/be-allergyintolerance.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$40</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="265">
   <si>
     <t>Path</t>
   </si>
@@ -812,6 +812,55 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.exposureRoute.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.exposureRoute.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.exposureRoute.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-exposureroute</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.exposureRoute.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.note</t>
@@ -973,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -982,7 +1031,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.24609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.7890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4499,7 +4548,7 @@
         <v>37</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
@@ -4511,17 +4560,15 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -4570,23 +4617,421 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AH36" t="s" s="2">
+      <c r="G37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="AI36" t="s" s="2">
+      <c r="AI37" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="Y38" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI40" t="s" s="2">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI36">
+  <autoFilter ref="A1:AI40">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4596,7 +5041,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/be-allergyintolerance.xlsx
+++ b/be-allergyintolerance.xlsx
@@ -510,7 +510,7 @@
     <t>Causative agent codes as defined by NIHDI</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-causativeagent</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-allergyintolerancecode</t>
   </si>
   <si>
     <t>AllergyIntolerance.patient</t>
@@ -1055,7 +1055,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="120.87890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.83984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
